--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H2">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I2">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J2">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005250333333333333</v>
+        <v>0.190144</v>
       </c>
       <c r="N2">
-        <v>0.015751</v>
+        <v>0.5704319999999999</v>
       </c>
       <c r="O2">
-        <v>0.0005654690851650077</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="P2">
-        <v>0.0005654690851650077</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="Q2">
-        <v>0.0007974923812222222</v>
+        <v>0.1555576303573333</v>
       </c>
       <c r="R2">
-        <v>0.007177431431</v>
+        <v>1.400018673216</v>
       </c>
       <c r="S2">
-        <v>4.882035562599435E-07</v>
+        <v>6.95684704458354E-05</v>
       </c>
       <c r="T2">
-        <v>4.882035562599434E-07</v>
+        <v>6.956847044583539E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H3">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I3">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J3">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>21.164913</v>
       </c>
       <c r="O3">
-        <v>0.7598313752591569</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="P3">
-        <v>0.7598313752591569</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="Q3">
-        <v>1.071605413417</v>
+        <v>5.771702346640999</v>
       </c>
       <c r="R3">
-        <v>9.644448720753001</v>
+        <v>51.945321119769</v>
       </c>
       <c r="S3">
-        <v>0.0006560082403994864</v>
+        <v>0.002581220241026411</v>
       </c>
       <c r="T3">
-        <v>0.0006560082403994864</v>
+        <v>0.002581220241026411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H4">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I4">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J4">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01070466666666667</v>
+        <v>2.333767</v>
       </c>
       <c r="N4">
-        <v>0.032114</v>
+        <v>7.001301</v>
       </c>
       <c r="O4">
-        <v>0.001152909288361949</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="P4">
-        <v>0.001152909288361949</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="Q4">
-        <v>0.001625971070444444</v>
+        <v>1.909264895690333</v>
       </c>
       <c r="R4">
-        <v>0.014633739634</v>
+        <v>17.183384061213</v>
       </c>
       <c r="S4">
-        <v>9.953761034684671E-07</v>
+        <v>0.0008538612870612059</v>
       </c>
       <c r="T4">
-        <v>9.953761034684671E-07</v>
+        <v>0.0008538612870612059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,122 +720,122 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8181043333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.454313</v>
+      </c>
+      <c r="I5">
+        <v>0.003510462371845219</v>
+      </c>
+      <c r="J5">
+        <v>0.003510462371845219</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.1518936666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.4556810000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.0008633602951388269</v>
-      </c>
-      <c r="J5">
-        <v>0.0008633602951388268</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>2.15607</v>
+        <v>0.01588633333333333</v>
       </c>
       <c r="N5">
-        <v>6.46821</v>
+        <v>0.047659</v>
       </c>
       <c r="O5">
-        <v>0.2322121002701515</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="P5">
-        <v>0.2322121002701514</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="Q5">
-        <v>0.32749337789</v>
+        <v>0.01299667814077778</v>
       </c>
       <c r="R5">
-        <v>2.947440401010001</v>
+        <v>0.116970103267</v>
       </c>
       <c r="S5">
-        <v>0.0002004827074240448</v>
+        <v>5.812373311767344E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002004827074240448</v>
+        <v>5.812373311767344E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1518936666666667</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H6">
-        <v>0.4556810000000001</v>
+        <v>6.883193</v>
       </c>
       <c r="I6">
-        <v>0.0008633602951388269</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J6">
-        <v>0.0008633602951388268</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01588633333333333</v>
+        <v>0.190144</v>
       </c>
       <c r="N6">
-        <v>0.047659</v>
+        <v>0.5704319999999999</v>
       </c>
       <c r="O6">
-        <v>0.001710982866476992</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="P6">
-        <v>0.001710982866476992</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="Q6">
-        <v>0.002413033419888889</v>
+        <v>0.4362659499306666</v>
       </c>
       <c r="R6">
-        <v>0.021717300779</v>
+        <v>3.926393549376</v>
       </c>
       <c r="S6">
-        <v>1.477194672579052E-06</v>
+        <v>0.0001951068216618993</v>
       </c>
       <c r="T6">
-        <v>1.477194672579052E-06</v>
+        <v>0.0001951068216618993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1518936666666667</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H7">
-        <v>0.4556810000000001</v>
+        <v>6.883193</v>
       </c>
       <c r="I7">
-        <v>0.0008633602951388269</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J7">
-        <v>0.0008633602951388268</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04203433333333333</v>
+        <v>7.054970999999999</v>
       </c>
       <c r="N7">
-        <v>0.126103</v>
+        <v>21.164913</v>
       </c>
       <c r="O7">
-        <v>0.004527163230687765</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="P7">
-        <v>0.004527163230687764</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="Q7">
-        <v>0.006384749015888889</v>
+        <v>16.186909000801</v>
       </c>
       <c r="R7">
-        <v>0.05746274114300001</v>
+        <v>145.682181007209</v>
       </c>
       <c r="S7">
-        <v>3.908572982988234E-06</v>
+        <v>0.007239108090325603</v>
       </c>
       <c r="T7">
-        <v>3.908572982988232E-06</v>
+        <v>0.007239108090325603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>6.883193</v>
       </c>
       <c r="I8">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J8">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.005250333333333333</v>
+        <v>2.333767</v>
       </c>
       <c r="N8">
-        <v>0.015751</v>
+        <v>7.001301</v>
       </c>
       <c r="O8">
-        <v>0.0005654690851650077</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="P8">
-        <v>0.0005654690851650077</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="Q8">
-        <v>0.01204635254922222</v>
+        <v>5.354589559343666</v>
       </c>
       <c r="R8">
-        <v>0.108417172943</v>
+        <v>48.191306034093</v>
       </c>
       <c r="S8">
-        <v>7.374455597278687E-06</v>
+        <v>0.002394679095156438</v>
       </c>
       <c r="T8">
-        <v>7.374455597278686E-06</v>
+        <v>0.002394679095156438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>6.883193</v>
       </c>
       <c r="I9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>7.054970999999999</v>
+        <v>0.01588633333333333</v>
       </c>
       <c r="N9">
-        <v>21.164913</v>
+        <v>0.047659</v>
       </c>
       <c r="O9">
-        <v>0.7598313752591569</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="P9">
-        <v>0.7598313752591569</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="Q9">
-        <v>16.186909000801</v>
+        <v>0.03644956613188889</v>
       </c>
       <c r="R9">
-        <v>145.682181007209</v>
+        <v>0.328046095187</v>
       </c>
       <c r="S9">
-        <v>0.009909193774285216</v>
+        <v>1.630097191879919E-05</v>
       </c>
       <c r="T9">
-        <v>0.009909193774285216</v>
+        <v>1.630097191879919E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.294397666666667</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H10">
-        <v>6.883193</v>
+        <v>225.1157</v>
       </c>
       <c r="I10">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J10">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01070466666666667</v>
+        <v>0.190144</v>
       </c>
       <c r="N10">
-        <v>0.032114</v>
+        <v>0.5704319999999999</v>
       </c>
       <c r="O10">
-        <v>0.001152909288361949</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="P10">
-        <v>0.001152909288361949</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="Q10">
-        <v>0.02456076222244444</v>
+        <v>14.26813322026667</v>
       </c>
       <c r="R10">
-        <v>0.221046860002</v>
+        <v>128.4131989824</v>
       </c>
       <c r="S10">
-        <v>1.503544327668134E-05</v>
+        <v>0.006380993346139449</v>
       </c>
       <c r="T10">
-        <v>1.503544327668134E-05</v>
+        <v>0.006380993346139448</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.294397666666667</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H11">
-        <v>6.883193</v>
+        <v>225.1157</v>
       </c>
       <c r="I11">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J11">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.15607</v>
+        <v>7.054970999999999</v>
       </c>
       <c r="N11">
-        <v>6.46821</v>
+        <v>21.164913</v>
       </c>
       <c r="O11">
-        <v>0.2322121002701515</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="P11">
-        <v>0.2322121002701514</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="Q11">
-        <v>4.94688197717</v>
+        <v>529.3949117149</v>
       </c>
       <c r="R11">
-        <v>44.52193779453</v>
+        <v>4764.554205434099</v>
       </c>
       <c r="S11">
-        <v>0.003028349148553996</v>
+        <v>0.2367559481666883</v>
       </c>
       <c r="T11">
-        <v>0.003028349148553995</v>
+        <v>0.2367559481666883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.294397666666667</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H12">
-        <v>6.883193</v>
+        <v>225.1157</v>
       </c>
       <c r="I12">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J12">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01588633333333333</v>
+        <v>2.333767</v>
       </c>
       <c r="N12">
-        <v>0.047659</v>
+        <v>7.001301</v>
       </c>
       <c r="O12">
-        <v>0.001710982866476992</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="P12">
-        <v>0.001710982866476992</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="Q12">
-        <v>0.03644956613188889</v>
+        <v>175.1225306139667</v>
       </c>
       <c r="R12">
-        <v>0.328046095187</v>
+        <v>1576.1027755257</v>
       </c>
       <c r="S12">
-        <v>2.231345180056536E-05</v>
+        <v>0.07831828350323872</v>
       </c>
       <c r="T12">
-        <v>2.231345180056536E-05</v>
+        <v>0.07831828350323872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.294397666666667</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H13">
-        <v>6.883193</v>
+        <v>225.1157</v>
       </c>
       <c r="I13">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J13">
-        <v>0.01304130639631125</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.04203433333333333</v>
+        <v>0.01588633333333333</v>
       </c>
       <c r="N13">
-        <v>0.126103</v>
+        <v>0.047659</v>
       </c>
       <c r="O13">
-        <v>0.004527163230687765</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="P13">
-        <v>0.004527163230687764</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="Q13">
-        <v>0.09644347631988889</v>
+        <v>1.192087682922222</v>
       </c>
       <c r="R13">
-        <v>0.867991286879</v>
+        <v>10.7287891463</v>
       </c>
       <c r="S13">
-        <v>5.904012279751345E-05</v>
+        <v>0.0005331253539136304</v>
       </c>
       <c r="T13">
-        <v>5.904012279751343E-05</v>
+        <v>0.0005331253539136304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.15489266666666</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H14">
-        <v>108.464678</v>
+        <v>3.517798</v>
       </c>
       <c r="I14">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J14">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.005250333333333333</v>
+        <v>0.190144</v>
       </c>
       <c r="N14">
-        <v>0.015751</v>
+        <v>0.5704319999999999</v>
       </c>
       <c r="O14">
-        <v>0.0005654690851650077</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="P14">
-        <v>0.0005654690851650077</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="Q14">
-        <v>0.1898252381308888</v>
+        <v>0.2229627276373333</v>
       </c>
       <c r="R14">
-        <v>1.708427143178</v>
+        <v>2.006664548736</v>
       </c>
       <c r="S14">
-        <v>0.000116205945668548</v>
+        <v>9.971337241721772E-05</v>
       </c>
       <c r="T14">
-        <v>0.000116205945668548</v>
+        <v>9.971337241721771E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.15489266666666</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H15">
-        <v>108.464678</v>
+        <v>3.517798</v>
       </c>
       <c r="I15">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J15">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>21.164913</v>
       </c>
       <c r="O15">
-        <v>0.7598313752591569</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="P15">
-        <v>0.7598313752591569</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="Q15">
-        <v>255.0717192714459</v>
+        <v>8.272654291285999</v>
       </c>
       <c r="R15">
-        <v>2295.645473443014</v>
+        <v>74.453888621574</v>
       </c>
       <c r="S15">
-        <v>0.1561481004480697</v>
+        <v>0.00369969576066387</v>
       </c>
       <c r="T15">
-        <v>0.1561481004480697</v>
+        <v>0.00369969576066387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.15489266666666</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H16">
-        <v>108.464678</v>
+        <v>3.517798</v>
       </c>
       <c r="I16">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J16">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.01070466666666667</v>
+        <v>2.333767</v>
       </c>
       <c r="N16">
-        <v>0.032114</v>
+        <v>7.001301</v>
       </c>
       <c r="O16">
-        <v>0.001152909288361949</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="P16">
-        <v>0.001152909288361949</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="Q16">
-        <v>0.3870260743657777</v>
+        <v>2.736573628355333</v>
       </c>
       <c r="R16">
-        <v>3.483234669292</v>
+        <v>24.629162655198</v>
       </c>
       <c r="S16">
-        <v>0.0002369270356929561</v>
+        <v>0.001223850229331522</v>
       </c>
       <c r="T16">
-        <v>0.0002369270356929561</v>
+        <v>0.001223850229331522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.15489266666666</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H17">
-        <v>108.464678</v>
+        <v>3.517798</v>
       </c>
       <c r="I17">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J17">
-        <v>0.2055036229516214</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.15607</v>
+        <v>0.01588633333333333</v>
       </c>
       <c r="N17">
-        <v>6.46821</v>
+        <v>0.047659</v>
       </c>
       <c r="O17">
-        <v>0.2322121002701515</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="P17">
-        <v>0.2322121002701514</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="Q17">
-        <v>77.95247943182</v>
+        <v>0.01862830387577778</v>
       </c>
       <c r="R17">
-        <v>701.5723148863799</v>
+        <v>0.167654734882</v>
       </c>
       <c r="S17">
-        <v>0.04772042789872131</v>
+        <v>8.330948502244229E-06</v>
       </c>
       <c r="T17">
-        <v>0.0477204278987213</v>
+        <v>8.330948502244229E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.15489266666666</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H18">
-        <v>108.464678</v>
+        <v>345.995399</v>
       </c>
       <c r="I18">
-        <v>0.2055036229516214</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J18">
-        <v>0.2055036229516214</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01588633333333333</v>
+        <v>0.190144</v>
       </c>
       <c r="N18">
-        <v>0.047659</v>
+        <v>0.5704319999999999</v>
       </c>
       <c r="O18">
-        <v>0.001710982866476992</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="P18">
-        <v>0.001710982866476992</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="Q18">
-        <v>0.5743686765335554</v>
+        <v>21.92964971581867</v>
       </c>
       <c r="R18">
-        <v>5.169318088802</v>
+        <v>197.366847442368</v>
       </c>
       <c r="S18">
-        <v>0.0003516131778691723</v>
+        <v>0.009807376112878239</v>
       </c>
       <c r="T18">
-        <v>0.0003516131778691723</v>
+        <v>0.009807376112878238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,61 +1597,61 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.15489266666666</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H19">
-        <v>108.464678</v>
+        <v>345.995399</v>
       </c>
       <c r="I19">
-        <v>0.2055036229516214</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J19">
-        <v>0.2055036229516214</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04203433333333333</v>
+        <v>7.054970999999999</v>
       </c>
       <c r="N19">
-        <v>0.126103</v>
+        <v>21.164913</v>
       </c>
       <c r="O19">
-        <v>0.004527163230687765</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="P19">
-        <v>0.004527163230687764</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="Q19">
-        <v>1.519746809981555</v>
+        <v>813.6625020261429</v>
       </c>
       <c r="R19">
-        <v>13.677721289834</v>
+        <v>7322.962518235287</v>
       </c>
       <c r="S19">
-        <v>0.0009303484455997026</v>
+        <v>0.363886076144652</v>
       </c>
       <c r="T19">
-        <v>0.0009303484455997025</v>
+        <v>0.363886076144652</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8966460000000001</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H20">
-        <v>2.689938</v>
+        <v>345.995399</v>
       </c>
       <c r="I20">
-        <v>0.005096516347148873</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J20">
-        <v>0.005096516347148872</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.005250333333333333</v>
+        <v>2.333767</v>
       </c>
       <c r="N20">
-        <v>0.015751</v>
+        <v>7.001301</v>
       </c>
       <c r="O20">
-        <v>0.0005654690851650077</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="P20">
-        <v>0.0005654690851650077</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="Q20">
-        <v>0.004707690382</v>
+        <v>269.1575481126777</v>
       </c>
       <c r="R20">
-        <v>0.04236921343799999</v>
+        <v>2422.417933014099</v>
       </c>
       <c r="S20">
-        <v>2.88192243635078E-06</v>
+        <v>0.120372616168922</v>
       </c>
       <c r="T20">
-        <v>2.88192243635078E-06</v>
+        <v>0.120372616168922</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8966460000000001</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H21">
-        <v>2.689938</v>
+        <v>345.995399</v>
       </c>
       <c r="I21">
-        <v>0.005096516347148873</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J21">
-        <v>0.005096516347148872</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>7.054970999999999</v>
+        <v>0.01588633333333333</v>
       </c>
       <c r="N21">
-        <v>21.164913</v>
+        <v>0.047659</v>
       </c>
       <c r="O21">
-        <v>0.7598313752591569</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="P21">
-        <v>0.7598313752591569</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="Q21">
-        <v>6.325811527266</v>
+        <v>1.832199413437889</v>
       </c>
       <c r="R21">
-        <v>56.932303745394</v>
+        <v>16.489794720941</v>
       </c>
       <c r="S21">
-        <v>0.003872493025084903</v>
+        <v>0.0008193960685299282</v>
       </c>
       <c r="T21">
-        <v>0.003872493025084902</v>
+        <v>0.0008193960685299282</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8966460000000001</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H22">
-        <v>2.689938</v>
+        <v>115.175972</v>
       </c>
       <c r="I22">
-        <v>0.005096516347148873</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J22">
-        <v>0.005096516347148872</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01070466666666667</v>
+        <v>0.190144</v>
       </c>
       <c r="N22">
-        <v>0.032114</v>
+        <v>0.5704319999999999</v>
       </c>
       <c r="O22">
-        <v>0.001152909288361949</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="P22">
-        <v>0.001152909288361949</v>
+        <v>0.01981746649780149</v>
       </c>
       <c r="Q22">
-        <v>0.009598296548</v>
+        <v>7.300006673322666</v>
       </c>
       <c r="R22">
-        <v>0.086384668932</v>
+        <v>65.70006005990399</v>
       </c>
       <c r="S22">
-        <v>5.875821034916447E-06</v>
+        <v>0.003264708374258852</v>
       </c>
       <c r="T22">
-        <v>5.875821034916446E-06</v>
+        <v>0.003264708374258852</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8966460000000001</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H23">
-        <v>2.689938</v>
+        <v>115.175972</v>
       </c>
       <c r="I23">
-        <v>0.005096516347148873</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J23">
-        <v>0.005096516347148872</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.15607</v>
+        <v>7.054970999999999</v>
       </c>
       <c r="N23">
-        <v>6.46821</v>
+        <v>21.164913</v>
       </c>
       <c r="O23">
-        <v>0.2322121002701515</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="P23">
-        <v>0.2322121002701514</v>
+        <v>0.7352935219384313</v>
       </c>
       <c r="Q23">
-        <v>1.93323154122</v>
+        <v>270.854380785604</v>
       </c>
       <c r="R23">
-        <v>17.39908387098</v>
+        <v>2437.689427070436</v>
       </c>
       <c r="S23">
-        <v>0.0011834727650326</v>
+        <v>0.1211314735350752</v>
       </c>
       <c r="T23">
-        <v>0.0011834727650326</v>
+        <v>0.1211314735350752</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8966460000000001</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H24">
-        <v>2.689938</v>
+        <v>115.175972</v>
       </c>
       <c r="I24">
-        <v>0.005096516347148873</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J24">
-        <v>0.005096516347148872</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.01588633333333333</v>
+        <v>2.333767</v>
       </c>
       <c r="N24">
-        <v>0.047659</v>
+        <v>7.001301</v>
       </c>
       <c r="O24">
-        <v>0.001710982866476992</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="P24">
-        <v>0.001710982866476992</v>
+        <v>0.2432332828602254</v>
       </c>
       <c r="Q24">
-        <v>0.014244417238</v>
+        <v>89.59796088217466</v>
       </c>
       <c r="R24">
-        <v>0.128199755142</v>
+        <v>806.381647939572</v>
       </c>
       <c r="S24">
-        <v>8.720052148691628E-06</v>
+        <v>0.04006999257651547</v>
       </c>
       <c r="T24">
-        <v>8.720052148691626E-06</v>
+        <v>0.04006999257651547</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,790 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8966460000000001</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H25">
-        <v>2.689938</v>
+        <v>115.175972</v>
       </c>
       <c r="I25">
-        <v>0.005096516347148873</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J25">
-        <v>0.005096516347148872</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04203433333333333</v>
+        <v>0.01588633333333333</v>
       </c>
       <c r="N25">
-        <v>0.126103</v>
+        <v>0.047659</v>
       </c>
       <c r="O25">
-        <v>0.004527163230687765</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="P25">
-        <v>0.004527163230687764</v>
+        <v>0.001655728703541739</v>
       </c>
       <c r="Q25">
-        <v>0.037689916846</v>
+        <v>0.6099079610608888</v>
       </c>
       <c r="R25">
-        <v>0.339209251614</v>
+        <v>5.489171649548</v>
       </c>
       <c r="S25">
-        <v>2.30727614114115E-05</v>
+        <v>0.0002727629873653698</v>
       </c>
       <c r="T25">
-        <v>2.307276141141149E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>112.663142</v>
-      </c>
-      <c r="H26">
-        <v>337.989426</v>
-      </c>
-      <c r="I26">
-        <v>0.6403748468449697</v>
-      </c>
-      <c r="J26">
-        <v>0.6403748468449696</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.005250333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.015751</v>
-      </c>
-      <c r="O26">
-        <v>0.0005654690851650077</v>
-      </c>
-      <c r="P26">
-        <v>0.0005654690851650077</v>
-      </c>
-      <c r="Q26">
-        <v>0.5915190498806665</v>
-      </c>
-      <c r="R26">
-        <v>5.323671448925999</v>
-      </c>
-      <c r="S26">
-        <v>0.0003621121788081069</v>
-      </c>
-      <c r="T26">
-        <v>0.0003621121788081069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>112.663142</v>
-      </c>
-      <c r="H27">
-        <v>337.989426</v>
-      </c>
-      <c r="I27">
-        <v>0.6403748468449697</v>
-      </c>
-      <c r="J27">
-        <v>0.6403748468449696</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>7.054970999999999</v>
-      </c>
-      <c r="N27">
-        <v>21.164913</v>
-      </c>
-      <c r="O27">
-        <v>0.7598313752591569</v>
-      </c>
-      <c r="P27">
-        <v>0.7598313752591569</v>
-      </c>
-      <c r="Q27">
-        <v>794.8351995788819</v>
-      </c>
-      <c r="R27">
-        <v>7153.516796209937</v>
-      </c>
-      <c r="S27">
-        <v>0.4865769005595853</v>
-      </c>
-      <c r="T27">
-        <v>0.4865769005595852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>112.663142</v>
-      </c>
-      <c r="H28">
-        <v>337.989426</v>
-      </c>
-      <c r="I28">
-        <v>0.6403748468449697</v>
-      </c>
-      <c r="J28">
-        <v>0.6403748468449696</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.01070466666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.032114</v>
-      </c>
-      <c r="O28">
-        <v>0.001152909288361949</v>
-      </c>
-      <c r="P28">
-        <v>0.001152909288361949</v>
-      </c>
-      <c r="Q28">
-        <v>1.206021380729333</v>
-      </c>
-      <c r="R28">
-        <v>10.854192426564</v>
-      </c>
-      <c r="S28">
-        <v>0.0007382941089609261</v>
-      </c>
-      <c r="T28">
-        <v>0.000738294108960926</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>112.663142</v>
-      </c>
-      <c r="H29">
-        <v>337.989426</v>
-      </c>
-      <c r="I29">
-        <v>0.6403748468449697</v>
-      </c>
-      <c r="J29">
-        <v>0.6403748468449696</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.15607</v>
-      </c>
-      <c r="N29">
-        <v>6.46821</v>
-      </c>
-      <c r="O29">
-        <v>0.2322121002701515</v>
-      </c>
-      <c r="P29">
-        <v>0.2322121002701514</v>
-      </c>
-      <c r="Q29">
-        <v>242.90962057194</v>
-      </c>
-      <c r="R29">
-        <v>2186.18658514746</v>
-      </c>
-      <c r="S29">
-        <v>0.148702788146047</v>
-      </c>
-      <c r="T29">
-        <v>0.1487027881460469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>112.663142</v>
-      </c>
-      <c r="H30">
-        <v>337.989426</v>
-      </c>
-      <c r="I30">
-        <v>0.6403748468449697</v>
-      </c>
-      <c r="J30">
-        <v>0.6403748468449696</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.01588633333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.047659</v>
-      </c>
-      <c r="O30">
-        <v>0.001710982866476992</v>
-      </c>
-      <c r="P30">
-        <v>0.001710982866476992</v>
-      </c>
-      <c r="Q30">
-        <v>1.789804228192666</v>
-      </c>
-      <c r="R30">
-        <v>16.108238053734</v>
-      </c>
-      <c r="S30">
-        <v>0.001095670391074571</v>
-      </c>
-      <c r="T30">
-        <v>0.001095670391074571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>112.663142</v>
-      </c>
-      <c r="H31">
-        <v>337.989426</v>
-      </c>
-      <c r="I31">
-        <v>0.6403748468449697</v>
-      </c>
-      <c r="J31">
-        <v>0.6403748468449696</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.04203433333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.126103</v>
-      </c>
-      <c r="O31">
-        <v>0.004527163230687765</v>
-      </c>
-      <c r="P31">
-        <v>0.004527163230687764</v>
-      </c>
-      <c r="Q31">
-        <v>4.735720065208667</v>
-      </c>
-      <c r="R31">
-        <v>42.62148058687799</v>
-      </c>
-      <c r="S31">
-        <v>0.002899081460493856</v>
-      </c>
-      <c r="T31">
-        <v>0.002899081460493854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>23.77214366666666</v>
-      </c>
-      <c r="H32">
-        <v>71.31643099999999</v>
-      </c>
-      <c r="I32">
-        <v>0.13512034716481</v>
-      </c>
-      <c r="J32">
-        <v>0.1351203471648099</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M32">
-        <v>0.005250333333333333</v>
-      </c>
-      <c r="N32">
-        <v>0.015751</v>
-      </c>
-      <c r="O32">
-        <v>0.0005654690851650077</v>
-      </c>
-      <c r="P32">
-        <v>0.0005654690851650077</v>
-      </c>
-      <c r="Q32">
-        <v>0.1248116782978889</v>
-      </c>
-      <c r="R32">
-        <v>1.123305104681</v>
-      </c>
-      <c r="S32">
-        <v>7.640637909846334E-05</v>
-      </c>
-      <c r="T32">
-        <v>7.640637909846333E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>23.77214366666666</v>
-      </c>
-      <c r="H33">
-        <v>71.31643099999999</v>
-      </c>
-      <c r="I33">
-        <v>0.13512034716481</v>
-      </c>
-      <c r="J33">
-        <v>0.1351203471648099</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>7.054970999999999</v>
-      </c>
-      <c r="N33">
-        <v>21.164913</v>
-      </c>
-      <c r="O33">
-        <v>0.7598313752591569</v>
-      </c>
-      <c r="P33">
-        <v>0.7598313752591569</v>
-      </c>
-      <c r="Q33">
-        <v>167.711784176167</v>
-      </c>
-      <c r="R33">
-        <v>1509.406057585503</v>
-      </c>
-      <c r="S33">
-        <v>0.1026686792117323</v>
-      </c>
-      <c r="T33">
-        <v>0.1026686792117323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>23.77214366666666</v>
-      </c>
-      <c r="H34">
-        <v>71.31643099999999</v>
-      </c>
-      <c r="I34">
-        <v>0.13512034716481</v>
-      </c>
-      <c r="J34">
-        <v>0.1351203471648099</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01070466666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.032114</v>
-      </c>
-      <c r="O34">
-        <v>0.001152909288361949</v>
-      </c>
-      <c r="P34">
-        <v>0.001152909288361949</v>
-      </c>
-      <c r="Q34">
-        <v>0.2544728739037778</v>
-      </c>
-      <c r="R34">
-        <v>2.290255865134</v>
-      </c>
-      <c r="S34">
-        <v>0.0001557815032930006</v>
-      </c>
-      <c r="T34">
-        <v>0.0001557815032930005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>23.77214366666666</v>
-      </c>
-      <c r="H35">
-        <v>71.31643099999999</v>
-      </c>
-      <c r="I35">
-        <v>0.13512034716481</v>
-      </c>
-      <c r="J35">
-        <v>0.1351203471648099</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>2.15607</v>
-      </c>
-      <c r="N35">
-        <v>6.46821</v>
-      </c>
-      <c r="O35">
-        <v>0.2322121002701515</v>
-      </c>
-      <c r="P35">
-        <v>0.2322121002701514</v>
-      </c>
-      <c r="Q35">
-        <v>51.25440579539</v>
-      </c>
-      <c r="R35">
-        <v>461.28965215851</v>
-      </c>
-      <c r="S35">
-        <v>0.03137657960437253</v>
-      </c>
-      <c r="T35">
-        <v>0.03137657960437251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>23.77214366666666</v>
-      </c>
-      <c r="H36">
-        <v>71.31643099999999</v>
-      </c>
-      <c r="I36">
-        <v>0.13512034716481</v>
-      </c>
-      <c r="J36">
-        <v>0.1351203471648099</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.01588633333333333</v>
-      </c>
-      <c r="N36">
-        <v>0.047659</v>
-      </c>
-      <c r="O36">
-        <v>0.001710982866476992</v>
-      </c>
-      <c r="P36">
-        <v>0.001710982866476992</v>
-      </c>
-      <c r="Q36">
-        <v>0.3776521983365555</v>
-      </c>
-      <c r="R36">
-        <v>3.398869785029</v>
-      </c>
-      <c r="S36">
-        <v>0.0002311885989114129</v>
-      </c>
-      <c r="T36">
-        <v>0.0002311885989114129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>23.77214366666666</v>
-      </c>
-      <c r="H37">
-        <v>71.31643099999999</v>
-      </c>
-      <c r="I37">
-        <v>0.13512034716481</v>
-      </c>
-      <c r="J37">
-        <v>0.1351203471648099</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.04203433333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.126103</v>
-      </c>
-      <c r="O37">
-        <v>0.004527163230687765</v>
-      </c>
-      <c r="P37">
-        <v>0.004527163230687764</v>
-      </c>
-      <c r="Q37">
-        <v>0.9992462109325555</v>
-      </c>
-      <c r="R37">
-        <v>8.993215898392998</v>
-      </c>
-      <c r="S37">
-        <v>0.0006117118674022935</v>
-      </c>
-      <c r="T37">
-        <v>0.0006117118674022932</v>
+        <v>0.0002727629873653698</v>
       </c>
     </row>
   </sheetData>
